--- a/831MarketingAnalytics/Project/831MarketingProject/output/engagement_predictions.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/engagement_predictions.xlsx
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -3515,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D330" t="n">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5458,10 +5458,10 @@
         <v>1</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>1</v>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D422" t="n">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="D460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -6945,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
